--- a/template/power_network.xlsx
+++ b/template/power_network.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24332"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28025"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\wsl$\Ubuntu\home\lutomasini\git\pandapower-heig-ui\template\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\wsl.localhost\Ubuntu\home\thierryfra\github\pro\pandapower-heig-ui\template\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6038DDFB-6717-47F6-8C4F-8F43D369FFE5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{86922E12-EA1C-4137-920E-09D27154E37F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="5" xr2:uid="{5FC146A3-AC37-46DC-AD92-E888F69598AC}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" activeTab="3" xr2:uid="{5FC146A3-AC37-46DC-AD92-E888F69598AC}"/>
   </bookViews>
   <sheets>
     <sheet name="bus" sheetId="1" r:id="rId1"/>
@@ -332,15 +332,14 @@
     <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -373,9 +372,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - 2022 Theme">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2013 - 2022">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -413,7 +412,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2013 - 2022">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -519,7 +518,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2013 - 2022">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -661,7 +660,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -675,19 +674,19 @@
       <selection activeCell="G31" sqref="G31"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="11.453125" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="4.28515625" customWidth="1"/>
+    <col min="1" max="1" width="4.26953125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>28</v>
       </c>
-      <c r="B1" s="5" t="s">
+      <c r="B1" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="5" t="s">
+      <c r="C1" s="4" t="s">
         <v>57</v>
       </c>
       <c r="D1" t="s">
@@ -700,157 +699,157 @@
         <v>21</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A2">
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A3">
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A4">
         <v>2</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A5">
         <v>3</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A6">
         <v>4</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A7">
         <v>5</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A8">
         <v>6</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A9">
         <v>7</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A10">
         <v>8</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A11">
         <v>9</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A12">
         <v>10</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A13">
         <v>11</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A14">
         <v>12</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A15">
         <v>13</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A16">
         <v>14</v>
       </c>
     </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A17">
         <v>15</v>
       </c>
     </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A18">
         <v>16</v>
       </c>
     </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A19">
         <v>17</v>
       </c>
     </row>
-    <row r="20" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A20">
         <v>18</v>
       </c>
     </row>
-    <row r="21" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A21">
         <v>19</v>
       </c>
     </row>
-    <row r="22" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A22">
         <v>20</v>
       </c>
     </row>
-    <row r="23" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A23">
         <v>21</v>
       </c>
     </row>
-    <row r="24" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A24">
         <v>22</v>
       </c>
     </row>
-    <row r="25" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A25">
         <v>23</v>
       </c>
     </row>
-    <row r="26" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A26">
         <v>24</v>
       </c>
     </row>
-    <row r="27" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A27">
         <v>25</v>
       </c>
     </row>
-    <row r="28" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A28">
         <v>26</v>
       </c>
     </row>
-    <row r="29" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A29">
         <v>27</v>
       </c>
     </row>
-    <row r="30" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A30">
         <v>28</v>
       </c>
     </row>
-    <row r="31" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A31">
         <v>29</v>
       </c>
     </row>
-    <row r="32" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A32">
         <v>30</v>
       </c>
@@ -869,42 +868,42 @@
       <selection activeCell="B2" sqref="B2:R26"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="13.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="13.7265625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="4.28515625" customWidth="1"/>
-    <col min="6" max="6" width="15.28515625" customWidth="1"/>
-    <col min="7" max="7" width="15.5703125" customWidth="1"/>
-    <col min="11" max="11" width="10.28515625" customWidth="1"/>
-    <col min="12" max="12" width="15.7109375" customWidth="1"/>
-    <col min="13" max="13" width="16.28515625" customWidth="1"/>
+    <col min="1" max="1" width="4.26953125" customWidth="1"/>
+    <col min="6" max="6" width="15.26953125" customWidth="1"/>
+    <col min="7" max="7" width="15.54296875" customWidth="1"/>
+    <col min="11" max="11" width="10.26953125" customWidth="1"/>
+    <col min="12" max="12" width="15.7265625" customWidth="1"/>
+    <col min="13" max="13" width="16.26953125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>28</v>
       </c>
-      <c r="B1" s="5" t="s">
+      <c r="B1" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="5" t="s">
+      <c r="C1" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="D1" s="5" t="s">
+      <c r="D1" s="4" t="s">
         <v>30</v>
       </c>
-      <c r="E1" s="5" t="s">
+      <c r="E1" s="4" t="s">
         <v>31</v>
       </c>
-      <c r="F1" s="5" t="s">
+      <c r="F1" s="4" t="s">
         <v>32</v>
       </c>
-      <c r="G1" s="5" t="s">
+      <c r="G1" s="4" t="s">
         <v>33</v>
       </c>
-      <c r="H1" s="5" t="s">
+      <c r="H1" s="4" t="s">
         <v>34</v>
       </c>
-      <c r="I1" s="5" t="s">
+      <c r="I1" s="4" t="s">
         <v>36</v>
       </c>
       <c r="J1" t="s">
@@ -913,13 +912,13 @@
       <c r="K1" t="s">
         <v>37</v>
       </c>
-      <c r="L1" s="11" t="s">
+      <c r="L1" s="10" t="s">
         <v>38</v>
       </c>
-      <c r="M1" s="11" t="s">
+      <c r="M1" s="10" t="s">
         <v>39</v>
       </c>
-      <c r="N1" s="11" t="s">
+      <c r="N1" s="10" t="s">
         <v>40</v>
       </c>
       <c r="O1" t="s">
@@ -935,172 +934,172 @@
         <v>21</v>
       </c>
     </row>
-    <row r="2" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A2">
         <v>0</v>
       </c>
-      <c r="B2" s="6"/>
-    </row>
-    <row r="3" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="B2" s="5"/>
+    </row>
+    <row r="3" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A3">
         <v>1</v>
       </c>
-      <c r="B3" s="6"/>
-    </row>
-    <row r="4" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="B3" s="5"/>
+    </row>
+    <row r="4" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A4">
         <v>2</v>
       </c>
-      <c r="B4" s="6"/>
-      <c r="K4" s="6"/>
-    </row>
-    <row r="5" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="B4" s="5"/>
+      <c r="K4" s="5"/>
+    </row>
+    <row r="5" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A5">
         <v>3</v>
       </c>
-      <c r="B5" s="6"/>
-      <c r="K5" s="6"/>
-    </row>
-    <row r="6" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="B5" s="5"/>
+      <c r="K5" s="5"/>
+    </row>
+    <row r="6" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A6">
         <v>4</v>
       </c>
-      <c r="B6" s="6"/>
-    </row>
-    <row r="7" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="B6" s="5"/>
+    </row>
+    <row r="7" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A7">
         <v>5</v>
       </c>
-      <c r="B7" s="6"/>
-    </row>
-    <row r="8" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="B7" s="5"/>
+    </row>
+    <row r="8" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A8">
         <v>6</v>
       </c>
-      <c r="B8" s="6"/>
-      <c r="K8" s="6"/>
-    </row>
-    <row r="9" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="B8" s="5"/>
+      <c r="K8" s="5"/>
+    </row>
+    <row r="9" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A9">
         <v>7</v>
       </c>
-      <c r="B9" s="6"/>
-      <c r="K9" s="6"/>
-    </row>
-    <row r="10" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="B9" s="5"/>
+      <c r="K9" s="5"/>
+    </row>
+    <row r="10" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A10">
         <v>8</v>
       </c>
-      <c r="B10" s="6"/>
-    </row>
-    <row r="11" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="B10" s="5"/>
+    </row>
+    <row r="11" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A11">
         <v>9</v>
       </c>
-      <c r="B11" s="6"/>
-    </row>
-    <row r="12" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="B11" s="5"/>
+    </row>
+    <row r="12" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A12">
         <v>10</v>
       </c>
-      <c r="B12" s="6"/>
-    </row>
-    <row r="13" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="B12" s="5"/>
+    </row>
+    <row r="13" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A13">
         <v>11</v>
       </c>
     </row>
-    <row r="14" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A14">
         <v>12</v>
       </c>
     </row>
-    <row r="15" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A15">
         <v>13</v>
       </c>
     </row>
-    <row r="16" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A16">
         <v>14</v>
       </c>
     </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A17">
         <v>15</v>
       </c>
     </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A18">
         <v>16</v>
       </c>
     </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A19">
         <v>17</v>
       </c>
     </row>
-    <row r="20" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A20">
         <v>18</v>
       </c>
     </row>
-    <row r="21" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A21">
         <v>19</v>
       </c>
     </row>
-    <row r="22" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A22">
         <v>20</v>
       </c>
     </row>
-    <row r="23" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A23">
         <v>21</v>
       </c>
     </row>
-    <row r="24" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A24">
         <v>22</v>
       </c>
     </row>
-    <row r="25" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A25">
         <v>23</v>
       </c>
     </row>
-    <row r="26" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A26">
         <v>24</v>
       </c>
     </row>
-    <row r="27" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A27">
         <v>25</v>
       </c>
     </row>
-    <row r="28" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A28">
         <v>26</v>
       </c>
     </row>
-    <row r="29" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A29">
         <v>27</v>
       </c>
     </row>
-    <row r="30" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A30">
         <v>28</v>
       </c>
     </row>
-    <row r="31" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A31">
         <v>29</v>
       </c>
     </row>
-    <row r="32" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A32">
         <v>30</v>
       </c>
@@ -1118,28 +1117,28 @@
       <selection activeCell="G35" sqref="G35"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="11.453125" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="4.28515625" customWidth="1"/>
+    <col min="1" max="1" width="4.26953125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>28</v>
       </c>
-      <c r="B1" s="5" t="s">
+      <c r="B1" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="5" t="s">
+      <c r="C1" s="4" t="s">
         <v>41</v>
       </c>
-      <c r="D1" s="5" t="s">
+      <c r="D1" s="4" t="s">
         <v>59</v>
       </c>
-      <c r="E1" s="5" t="s">
+      <c r="E1" s="4" t="s">
         <v>60</v>
       </c>
-      <c r="F1" s="5" t="s">
+      <c r="F1" s="4" t="s">
         <v>51</v>
       </c>
       <c r="G1" t="s">
@@ -1155,157 +1154,157 @@
         <v>21</v>
       </c>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A2">
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A3">
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A4">
         <v>2</v>
       </c>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A5">
         <v>3</v>
       </c>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A6">
         <v>4</v>
       </c>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A7">
         <v>5</v>
       </c>
     </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A8">
         <v>6</v>
       </c>
     </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A9">
         <v>7</v>
       </c>
     </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A10">
         <v>8</v>
       </c>
     </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A11">
         <v>9</v>
       </c>
     </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A12">
         <v>10</v>
       </c>
     </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A13">
         <v>11</v>
       </c>
     </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A14">
         <v>12</v>
       </c>
     </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A15">
         <v>13</v>
       </c>
     </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A16">
         <v>14</v>
       </c>
     </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A17">
         <v>15</v>
       </c>
     </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A18">
         <v>16</v>
       </c>
     </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A19">
         <v>17</v>
       </c>
     </row>
-    <row r="20" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A20">
         <v>18</v>
       </c>
     </row>
-    <row r="21" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A21">
         <v>19</v>
       </c>
     </row>
-    <row r="22" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A22">
         <v>20</v>
       </c>
     </row>
-    <row r="23" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A23">
         <v>21</v>
       </c>
     </row>
-    <row r="24" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A24">
         <v>22</v>
       </c>
     </row>
-    <row r="25" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A25">
         <v>23</v>
       </c>
     </row>
-    <row r="26" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A26">
         <v>24</v>
       </c>
     </row>
-    <row r="27" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A27">
         <v>25</v>
       </c>
     </row>
-    <row r="28" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A28">
         <v>26</v>
       </c>
     </row>
-    <row r="29" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A29">
         <v>27</v>
       </c>
     </row>
-    <row r="30" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A30">
         <v>28</v>
       </c>
     </row>
-    <row r="31" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A31">
         <v>29</v>
       </c>
     </row>
-    <row r="32" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A32">
         <v>30</v>
       </c>
@@ -1319,70 +1318,70 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3219A80D-1395-476B-8C71-29B1418CDB59}">
   <dimension ref="A1:AD32"/>
   <sheetViews>
-    <sheetView topLeftCell="F1" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2:AD4"/>
+    <sheetView tabSelected="1" topLeftCell="F1" workbookViewId="0">
+      <selection activeCell="K9" sqref="K9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="12.7265625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="4.28515625" customWidth="1"/>
-    <col min="15" max="15" width="14.140625" customWidth="1"/>
-    <col min="17" max="17" width="13.28515625" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="17.42578125" customWidth="1"/>
-    <col min="24" max="24" width="19.42578125" customWidth="1"/>
-    <col min="26" max="26" width="18.7109375" customWidth="1"/>
+    <col min="1" max="1" width="4.26953125" customWidth="1"/>
+    <col min="15" max="15" width="14.1796875" customWidth="1"/>
+    <col min="17" max="17" width="13.26953125" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="17.453125" customWidth="1"/>
+    <col min="24" max="24" width="19.453125" customWidth="1"/>
+    <col min="26" max="26" width="18.7265625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:30" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:30" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A1" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="B1" s="4" t="s">
+      <c r="B1" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="4" t="s">
+      <c r="C1" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="4" t="s">
+      <c r="D1" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="E1" s="4" t="s">
+      <c r="E1" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="F1" s="4" t="s">
+      <c r="F1" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="G1" s="4" t="s">
+      <c r="G1" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="H1" s="4" t="s">
+      <c r="H1" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="I1" s="4" t="s">
+      <c r="I1" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="J1" s="4" t="s">
+      <c r="J1" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="K1" s="4" t="s">
+      <c r="K1" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="L1" s="5" t="s">
+      <c r="L1" t="s">
         <v>22</v>
       </c>
-      <c r="M1" s="11" t="s">
+      <c r="M1" s="10" t="s">
         <v>23</v>
       </c>
-      <c r="N1" s="11" t="s">
+      <c r="N1" s="10" t="s">
         <v>24</v>
       </c>
-      <c r="O1" s="11" t="s">
+      <c r="O1" s="10" t="s">
         <v>25</v>
       </c>
-      <c r="P1" s="11" t="s">
+      <c r="P1" s="10" t="s">
         <v>26</v>
       </c>
-      <c r="Q1" s="11" t="s">
+      <c r="Q1" s="10" t="s">
         <v>27</v>
       </c>
       <c r="R1" s="2" t="s">
@@ -1412,170 +1411,170 @@
       <c r="Z1" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="AA1" s="3" t="s">
+      <c r="AA1" t="s">
         <v>19</v>
       </c>
       <c r="AB1" s="2" t="s">
         <v>64</v>
       </c>
-      <c r="AC1" s="3" t="s">
+      <c r="AC1" t="s">
         <v>20</v>
       </c>
-      <c r="AD1" s="3" t="s">
+      <c r="AD1" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="2" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:30" x14ac:dyDescent="0.35">
       <c r="A2">
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:30" x14ac:dyDescent="0.35">
       <c r="A3">
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:30" x14ac:dyDescent="0.35">
       <c r="A4">
         <v>2</v>
       </c>
     </row>
-    <row r="5" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:30" x14ac:dyDescent="0.35">
       <c r="A5">
         <v>3</v>
       </c>
     </row>
-    <row r="6" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:30" x14ac:dyDescent="0.35">
       <c r="A6">
         <v>4</v>
       </c>
     </row>
-    <row r="7" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:30" x14ac:dyDescent="0.35">
       <c r="A7">
         <v>5</v>
       </c>
     </row>
-    <row r="8" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:30" x14ac:dyDescent="0.35">
       <c r="A8">
         <v>6</v>
       </c>
     </row>
-    <row r="9" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:30" x14ac:dyDescent="0.35">
       <c r="A9">
         <v>7</v>
       </c>
     </row>
-    <row r="10" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:30" x14ac:dyDescent="0.35">
       <c r="A10">
         <v>8</v>
       </c>
     </row>
-    <row r="11" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:30" x14ac:dyDescent="0.35">
       <c r="A11">
         <v>9</v>
       </c>
     </row>
-    <row r="12" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:30" x14ac:dyDescent="0.35">
       <c r="A12">
         <v>10</v>
       </c>
     </row>
-    <row r="13" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:30" x14ac:dyDescent="0.35">
       <c r="A13">
         <v>11</v>
       </c>
     </row>
-    <row r="14" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:30" x14ac:dyDescent="0.35">
       <c r="A14">
         <v>12</v>
       </c>
     </row>
-    <row r="15" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:30" x14ac:dyDescent="0.35">
       <c r="A15">
         <v>13</v>
       </c>
     </row>
-    <row r="16" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:30" x14ac:dyDescent="0.35">
       <c r="A16">
         <v>14</v>
       </c>
     </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A17">
         <v>15</v>
       </c>
     </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A18">
         <v>16</v>
       </c>
     </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A19">
         <v>17</v>
       </c>
     </row>
-    <row r="20" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A20">
         <v>18</v>
       </c>
     </row>
-    <row r="21" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A21">
         <v>19</v>
       </c>
     </row>
-    <row r="22" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A22">
         <v>20</v>
       </c>
     </row>
-    <row r="23" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A23">
         <v>21</v>
       </c>
     </row>
-    <row r="24" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A24">
         <v>22</v>
       </c>
     </row>
-    <row r="25" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A25">
         <v>23</v>
       </c>
     </row>
-    <row r="26" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A26">
         <v>24</v>
       </c>
     </row>
-    <row r="27" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A27">
         <v>25</v>
       </c>
     </row>
-    <row r="28" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A28">
         <v>26</v>
       </c>
     </row>
-    <row r="29" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A29">
         <v>27</v>
       </c>
     </row>
-    <row r="30" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A30">
         <v>28</v>
       </c>
     </row>
-    <row r="31" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A31">
         <v>29</v>
       </c>
     </row>
-    <row r="32" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A32">
         <v>30</v>
       </c>
@@ -1593,64 +1592,64 @@
       <selection activeCell="G1" sqref="G1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="12.7265625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="4.28515625" customWidth="1"/>
-    <col min="3" max="3" width="12.7109375" style="9"/>
-    <col min="7" max="7" width="13.85546875" customWidth="1"/>
-    <col min="8" max="8" width="16.28515625" customWidth="1"/>
+    <col min="1" max="1" width="4.26953125" customWidth="1"/>
+    <col min="3" max="3" width="12.7265625" style="8"/>
+    <col min="7" max="7" width="13.81640625" customWidth="1"/>
+    <col min="8" max="8" width="16.26953125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>28</v>
       </c>
-      <c r="B1" s="5" t="s">
+      <c r="B1" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="7" t="s">
+      <c r="C1" s="6" t="s">
         <v>41</v>
       </c>
-      <c r="D1" s="6" t="s">
+      <c r="D1" s="5" t="s">
         <v>42</v>
       </c>
-      <c r="E1" s="6" t="s">
+      <c r="E1" s="5" t="s">
         <v>43</v>
       </c>
-      <c r="F1" s="6" t="s">
+      <c r="F1" s="5" t="s">
         <v>44</v>
       </c>
-      <c r="G1" s="10" t="s">
+      <c r="G1" s="9" t="s">
         <v>45</v>
       </c>
-      <c r="H1" s="6" t="s">
+      <c r="H1" s="5" t="s">
         <v>46</v>
       </c>
-      <c r="I1" s="6" t="s">
+      <c r="I1" s="5" t="s">
         <v>47</v>
       </c>
-      <c r="J1" s="10" t="s">
+      <c r="J1" s="9" t="s">
         <v>48</v>
       </c>
-      <c r="K1" s="10" t="s">
+      <c r="K1" s="9" t="s">
         <v>49</v>
       </c>
-      <c r="L1" s="10" t="s">
+      <c r="L1" s="9" t="s">
         <v>50</v>
       </c>
       <c r="M1" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A2">
         <v>0</v>
       </c>
-      <c r="B2" s="6"/>
-      <c r="C2" s="8"/>
-      <c r="D2" s="6"/>
-      <c r="E2" s="6"/>
-      <c r="F2" s="6"/>
+      <c r="B2" s="5"/>
+      <c r="C2" s="7"/>
+      <c r="D2" s="5"/>
+      <c r="E2" s="5"/>
+      <c r="F2" s="5"/>
       <c r="G2">
         <v>100</v>
       </c>
@@ -1664,153 +1663,153 @@
         <v>2</v>
       </c>
     </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A3">
         <v>1</v>
       </c>
-      <c r="B3" s="6"/>
-    </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="B3" s="5"/>
+    </row>
+    <row r="4" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A4">
         <v>2</v>
       </c>
     </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A5">
         <v>3</v>
       </c>
     </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A6">
         <v>4</v>
       </c>
     </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A7">
         <v>5</v>
       </c>
     </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A8">
         <v>6</v>
       </c>
     </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A9">
         <v>7</v>
       </c>
     </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A10">
         <v>8</v>
       </c>
     </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A11">
         <v>9</v>
       </c>
     </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A12">
         <v>10</v>
       </c>
     </row>
-    <row r="13" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A13">
         <v>11</v>
       </c>
     </row>
-    <row r="14" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A14">
         <v>12</v>
       </c>
     </row>
-    <row r="15" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A15">
         <v>13</v>
       </c>
     </row>
-    <row r="16" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A16">
         <v>14</v>
       </c>
     </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A17">
         <v>15</v>
       </c>
     </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A18">
         <v>16</v>
       </c>
     </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A19">
         <v>17</v>
       </c>
     </row>
-    <row r="20" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A20">
         <v>18</v>
       </c>
     </row>
-    <row r="21" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A21">
         <v>19</v>
       </c>
     </row>
-    <row r="22" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A22">
         <v>20</v>
       </c>
     </row>
-    <row r="23" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A23">
         <v>21</v>
       </c>
     </row>
-    <row r="24" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A24">
         <v>22</v>
       </c>
     </row>
-    <row r="25" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A25">
         <v>23</v>
       </c>
     </row>
-    <row r="26" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A26">
         <v>24</v>
       </c>
     </row>
-    <row r="27" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A27">
         <v>25</v>
       </c>
     </row>
-    <row r="28" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A28">
         <v>26</v>
       </c>
     </row>
-    <row r="29" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A29">
         <v>27</v>
       </c>
     </row>
-    <row r="30" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A30">
         <v>28</v>
       </c>
     </row>
-    <row r="31" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A31">
         <v>29</v>
       </c>
     </row>
-    <row r="32" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A32">
         <v>30</v>
       </c>
@@ -1825,31 +1824,31 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CB0724F9-1790-4ECA-B4EA-D773CFA5B42B}">
   <dimension ref="A1:M32"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="H1" sqref="H1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="11.453125" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="4.28515625" customWidth="1"/>
-    <col min="2" max="7" width="10.7109375" customWidth="1"/>
-    <col min="8" max="8" width="19.5703125" bestFit="1" customWidth="1"/>
-    <col min="9" max="11" width="10.7109375" customWidth="1"/>
-    <col min="12" max="12" width="17.140625" customWidth="1"/>
-    <col min="13" max="24" width="10.7109375" customWidth="1"/>
+    <col min="1" max="1" width="4.26953125" customWidth="1"/>
+    <col min="2" max="7" width="10.7265625" customWidth="1"/>
+    <col min="8" max="8" width="19.54296875" bestFit="1" customWidth="1"/>
+    <col min="9" max="11" width="10.7265625" customWidth="1"/>
+    <col min="12" max="12" width="17.1796875" customWidth="1"/>
+    <col min="13" max="24" width="10.7265625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>28</v>
       </c>
-      <c r="B1" s="5" t="s">
+      <c r="B1" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="5" t="s">
+      <c r="C1" s="4" t="s">
         <v>41</v>
       </c>
-      <c r="D1" s="5" t="s">
+      <c r="D1" s="4" t="s">
         <v>52</v>
       </c>
       <c r="E1" t="s">
@@ -1861,16 +1860,16 @@
       <c r="G1" t="s">
         <v>56</v>
       </c>
-      <c r="H1" s="12" t="s">
+      <c r="H1" s="11" t="s">
         <v>65</v>
       </c>
       <c r="I1" t="s">
         <v>37</v>
       </c>
-      <c r="J1" s="11" t="s">
+      <c r="J1" s="10" t="s">
         <v>66</v>
       </c>
-      <c r="K1" s="11" t="s">
+      <c r="K1" s="10" t="s">
         <v>67</v>
       </c>
       <c r="L1" t="s">
@@ -1880,157 +1879,157 @@
         <v>21</v>
       </c>
     </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A2">
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A3">
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A4">
         <v>2</v>
       </c>
     </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A5">
         <v>3</v>
       </c>
     </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A6">
         <v>4</v>
       </c>
     </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A7">
         <v>5</v>
       </c>
     </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A8">
         <v>6</v>
       </c>
     </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A9">
         <v>7</v>
       </c>
     </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A10">
         <v>8</v>
       </c>
     </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A11">
         <v>9</v>
       </c>
     </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A12">
         <v>10</v>
       </c>
     </row>
-    <row r="13" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A13">
         <v>11</v>
       </c>
     </row>
-    <row r="14" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A14">
         <v>12</v>
       </c>
     </row>
-    <row r="15" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A15">
         <v>13</v>
       </c>
     </row>
-    <row r="16" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A16">
         <v>14</v>
       </c>
     </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A17">
         <v>15</v>
       </c>
     </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A18">
         <v>16</v>
       </c>
     </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A19">
         <v>17</v>
       </c>
     </row>
-    <row r="20" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A20">
         <v>18</v>
       </c>
     </row>
-    <row r="21" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A21">
         <v>19</v>
       </c>
     </row>
-    <row r="22" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A22">
         <v>20</v>
       </c>
     </row>
-    <row r="23" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A23">
         <v>21</v>
       </c>
     </row>
-    <row r="24" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A24">
         <v>22</v>
       </c>
     </row>
-    <row r="25" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A25">
         <v>23</v>
       </c>
     </row>
-    <row r="26" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A26">
         <v>24</v>
       </c>
     </row>
-    <row r="27" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A27">
         <v>25</v>
       </c>
     </row>
-    <row r="28" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A28">
         <v>26</v>
       </c>
     </row>
-    <row r="29" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A29">
         <v>27</v>
       </c>
     </row>
-    <row r="30" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A30">
         <v>28</v>
       </c>
     </row>
-    <row r="31" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A31">
         <v>29</v>
       </c>
     </row>
-    <row r="32" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A32">
         <v>30</v>
       </c>
@@ -2050,22 +2049,22 @@
       <selection activeCell="G1" sqref="G1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="11.453125" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="4.28515625" customWidth="1"/>
-    <col min="7" max="7" width="19.5703125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="4.26953125" customWidth="1"/>
+    <col min="7" max="7" width="19.54296875" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="18" customWidth="1"/>
-    <col min="9" max="9" width="16.42578125" customWidth="1"/>
+    <col min="9" max="9" width="16.453125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>28</v>
       </c>
-      <c r="B1" s="5" t="s">
+      <c r="B1" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="5" t="s">
+      <c r="C1" s="4" t="s">
         <v>41</v>
       </c>
       <c r="D1" t="s">
@@ -2077,7 +2076,7 @@
       <c r="F1" t="s">
         <v>56</v>
       </c>
-      <c r="G1" s="12" t="s">
+      <c r="G1" s="11" t="s">
         <v>65</v>
       </c>
       <c r="H1" t="s">
@@ -2086,7 +2085,7 @@
       <c r="I1" t="s">
         <v>55</v>
       </c>
-      <c r="J1" s="6" t="s">
+      <c r="J1" s="5" t="s">
         <v>3</v>
       </c>
       <c r="K1" t="s">
@@ -2096,157 +2095,157 @@
         <v>37</v>
       </c>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A2">
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A3">
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A4">
         <v>2</v>
       </c>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A5">
         <v>3</v>
       </c>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A6">
         <v>4</v>
       </c>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A7">
         <v>5</v>
       </c>
     </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A8">
         <v>6</v>
       </c>
     </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A9">
         <v>7</v>
       </c>
     </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A10">
         <v>8</v>
       </c>
     </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A11">
         <v>9</v>
       </c>
     </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A12">
         <v>10</v>
       </c>
     </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A13">
         <v>11</v>
       </c>
     </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A14">
         <v>12</v>
       </c>
     </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A15">
         <v>13</v>
       </c>
     </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A16">
         <v>14</v>
       </c>
     </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A17">
         <v>15</v>
       </c>
     </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A18">
         <v>16</v>
       </c>
     </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A19">
         <v>17</v>
       </c>
     </row>
-    <row r="20" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A20">
         <v>18</v>
       </c>
     </row>
-    <row r="21" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A21">
         <v>19</v>
       </c>
     </row>
-    <row r="22" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A22">
         <v>20</v>
       </c>
     </row>
-    <row r="23" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A23">
         <v>21</v>
       </c>
     </row>
-    <row r="24" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A24">
         <v>22</v>
       </c>
     </row>
-    <row r="25" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A25">
         <v>23</v>
       </c>
     </row>
-    <row r="26" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A26">
         <v>24</v>
       </c>
     </row>
-    <row r="27" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A27">
         <v>25</v>
       </c>
     </row>
-    <row r="28" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A28">
         <v>26</v>
       </c>
     </row>
-    <row r="29" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A29">
         <v>27</v>
       </c>
     </row>
-    <row r="30" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A30">
         <v>28</v>
       </c>
     </row>
-    <row r="31" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A31">
         <v>29</v>
       </c>
     </row>
-    <row r="32" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A32">
         <v>30</v>
       </c>
